--- a/Excel/offlinedocs/test-workbook-FormatParser.xlsx
+++ b/Excel/offlinedocs/test-workbook-FormatParser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="847">
   <si>
     <t>1-1</t>
   </si>
@@ -2452,6 +2452,111 @@
   </si>
   <si>
     <t>1 1 1</t>
+  </si>
+  <si>
+    <t>1,234</t>
+  </si>
+  <si>
+    <t>1,,234</t>
+  </si>
+  <si>
+    <t>1,234.567</t>
+  </si>
+  <si>
+    <t>1,234567</t>
+  </si>
+  <si>
+    <t>1,23</t>
+  </si>
+  <si>
+    <t>1,23,456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 1,234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1,234</t>
+  </si>
+  <si>
+    <t>1, 234</t>
+  </si>
+  <si>
+    <t>$1,234</t>
+  </si>
+  <si>
+    <t>$1,234.567</t>
+  </si>
+  <si>
+    <t>$1,234567</t>
+  </si>
+  <si>
+    <t>$1,,234</t>
+  </si>
+  <si>
+    <t>$1,23</t>
+  </si>
+  <si>
+    <t>$1,23,456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $+ 1,234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $- 1,234</t>
+  </si>
+  <si>
+    <t>$1, 234</t>
+  </si>
+  <si>
+    <t>-$100</t>
+  </si>
+  <si>
+    <t>+$100</t>
+  </si>
+  <si>
+    <t>1,234,5678</t>
+  </si>
+  <si>
+    <t>$1,234,5678</t>
+  </si>
+  <si>
+    <t>1,234,5678%</t>
+  </si>
+  <si>
+    <t>1, 234%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1,234%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 1,234%</t>
+  </si>
+  <si>
+    <t>1,23,456%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,,234%</t>
+  </si>
+  <si>
+    <t>1,234567%</t>
+  </si>
+  <si>
+    <t>1,234.567%</t>
+  </si>
+  <si>
+    <t>1,234%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123 % </t>
   </si>
 </sst>
 </file>
@@ -2792,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AA48"/>
+  <dimension ref="B2:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,6 +5437,137 @@
       </c>
       <c r="O48" s="1" t="s">
         <v>787</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
